--- a/500all/speech_level/speeches_CHRG-114hhrg97765.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97765.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,48 +52,30 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock. Thank you and Chairman Smith for holding this hearing.    I am certainly pleased that we're once again planning to take up reauthorization legislation for the Networking and Information Technology R&amp;D Program known as NITRD. The House, through this committee, has successfully passed a bipartisan reauthorization of the program in each of the past three Congresses, and each time the Senate has failed to follow suit. If we are going to move a bill to the President's desk, each of us in this room will need to work harder on the necessary outreach to gather support. It's been too long since the original High-Performance Computing Act of 1991 has been updated with the current state of science and technology in the field, as well as the current operational and management needs of the program.    Networking and information technology is changing more rapidly than any of us could have dreamed in 1991. Mosaic, the World Wide Web browser that first made the internet user-friendly, was created at the National Center for Supercomputing Applications at the University Of Illinois in 1993 under a project funded thanks in large part to the HPC Act. Netscape founder Marc Andreessen, who was a leader of the Illinois team before launching his company, was quoted as saying, ``if it had been left to private industry, it wouldn't have happened, at least not until years later.'' Dr. Andreessen's statement is as relevant today as ever. Without question, the 1991 Act set the stage for a coordinated federal R&amp;D strategy that has underpinned the U.S. leadership in NIT for the past 25 years.    One reason, I believe, that we are having trouble getting an update through the Senate is that the private sector has not weighed in on the importance of NITRD. I understand that in the process of planning this hearing there was some difficulty identifying experts in industry at sufficiently high level with knowledge of the NITRD Program. Even the experts that were consulted had a hard time coming up with more names to reach out to. Given that federal investments in stet have applications across all sectors of our economy and at the ground level, NITRD involves many public-private partnerships, I find this troubling that we have not been able to get the private sector engaged here.    The NITRD Program is a $4 billion investment covering every aspect of networking and information technology R&amp;D, in addition to the computing infrastructure required to support R&amp;D in every field of science and engineering. Four billion dollars is a large sum by any measure. However, NITRD covers so many areas of R&amp;D, as the Chairwoman noted, and includes so much expensive but essential infrastructure, I fear we may be under-investing in many critical areas such as cybersecurity.    I want to thank the witnesses for submitting detailed written testimony, and I will highlight just a few topics that I hope we can discuss this morning. In his testimony, Dr. Seidel, the current Director of NCSA, discusses the need for more coherence and coordination around computing research infrastructure. When we talk about computing research infrastructure, we mean not just high-performance computing facilities such as Blue Waters, but also big data infrastructure, networking testbeds, observation systems, and more. I'd like to understand better how infrastructure is planned, coordinated, and categorized under the NITRD Program, and how the new National Strategic Computing Initiative fits in.    On the topic of education and workforce, we have heard from countless experts that our IT workforce pipeline is not keeping up with the demand. When it comes to education and training, the federal role may be small compared to the state and private sector's. However, PCAST made some specific recommendations for federal agencies that we may be able to take up in the NITRD legislation, so I hope we have the opportunity to discuss those recommendations further.    I look forward to hearing from this morning's expert panel. And with that, I yield back.</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chair. And let me say that I appreciate both your and the Ranking Member's thoughtful comments today.    Madam Chair, the Networking and Information Technology Research and Development program that we review today, otherwise known as NITRD, oversees federal investment in fundamental research areas such as supercomputing, cybersecurity, big data, and cyber-physical systems.    These research priorities help spur technologies that protect our country and grow our economy. For example, a cybersecurity attack is one of the greatest security challenges that America faces today. It threatens all of our federal agencies and even our private computer systems. This is just one area of federal R&amp;D that the NITRD Program addresses.    In the digital age, threats to our country's computer networking systems constantly evolve. We must effectively coordinate R&amp;D efforts in order to protect and improve cyber and data security nationwide. Better network security promotes U.S. competitiveness, enhances national security, and creates high-tech jobs.    In fact, the most recent President's Council of Advisors on Science and Technology report predicts that more than half of all new science, technology, engineering, and mathematics jobs will be related to information technology.    A healthy and viable workforce, literate in all STEM subjects including computer science, is critical to American industries. Today, a variety of jobs in industries from banking to engineering to medicine require a familiarity with computer science. According to the Bureau of Labor Statistics, computing and mathematics will be one of the top ten fastest-growing major occupational groups from 2010 to 2020, with a growth rate of four percent annually compared to one percent for all other industries.    Encouraging innovation and technological advancements is a priority of the Science Committee and is important to high-tech communities across our country, including those in my district.    The NITRD program focuses on research and development of new technologies that create more high-tech jobs in STEM fields. Technological innovation is what drives America's economy and success. Since the invention of the world's first supercomputer 50 years ago, the United States has held a competitive advantage in the field of supercomputing.    In fact, in Austin, Texas, we have seen great achievements in supercomputing. The Stampede supercomputer at the Texas Advanced Computing Center at the University of Texas in Austin is the number one open-access supercomputer in the country. Stampede will be used by more than 1,000 scientists from the United States and around the world to solve problems that affect our daily lives. This is a tremendous accomplishment not only for the innovators at the University of Texas in Austin but also for all Americans.    But to maintain this competitive advantage, we must continue to support the fundamental research and development that encourages innovation, particularly the creation and design of supercomputers and the applications those computers support.    It has been two years since this Committee last reviewed the NITRD Program and passed our Committee's bill to reauthorize the program. The Advanced--the Advancing America's Networking and Information Technology Research and Development Act of 2013 provided for the coordinated R&amp;D efforts necessary to improve cyber and data security nationwide. Our legislation also authorized the participating agencies to support large-scale, long-term, interdisciplinary research. Unfortunately, that legislation stalled in the Senate.    I want to thank our witnesses today for testifying on the NITRD program and appreciate their testimony on the current state of the program, recommendations for how to improve the program, and future R&amp;D priorities.    And I will yield back. Thank you.</t>
   </si>
   <si>
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much. I want to thank you, Chairwoman Comstock, for holding this important hearing.    The Science, Space, and Technology Committee played a central role in the development of the High-Performance Computing Act of 1991, the bill that set the stage for 25 years of scientific and technological progress under the Networking and Information Technology Research and Development, or NITRD.    Advances in networking and information technology are a key driver of our economy, our national security, and our well-being. NITRD contributes to increased productivity in existing industries and opens the door for information of new ones. We've all heard how Google grew out of a basic research project funded by the National Science Foundation. NITRD protects our brave men and women in the military by improving intelligence gathering and sharing and providing them with more effective and safer equipment. NITRD has improved healthcare and saved countless lives by contributing to advanced diagnostic and surgical tools, distance medicine, and improved medical research.    NIT is truly pervasive in our society. Even those of us who lived most of our lives before the advent of wireless technology don't know how we would live today without the devices we carry around in our pockets.    In their 2015 review of the NITRD Program, the President's Council of Advisors on Science and Technology, PCAST, expressed concern that researchers today face difficulty getting funded for riskier, more speculative long-term investigations. According to the PCAST report, funding pressures are pushing scientists to choose more short-term problem-solving research. I worry deeply about the impact of that and declining budgets across our science and technology enterprise. I hope that any budget deal being worked out now and in the future will allow for increased investments in all fields of science and engineering. That was just one of many recommendations from PCAST and other experts.    Today's hearing is an important opportunity for committee members to hear from experts about key issues in NITRD reauthorization. Our committee has tried several times to update and reauthorize NITRD legislation so that it continues to push the boundaries of information technology, science and technology, and maximizes opportunities for coordination, collaboration, and strategic planning among the many NITRD member agencies.    I look forward to working with my colleagues on both sides of the aisle to develop a good bill and move it through the House. Perhaps we will have more success this time around in the Senate.    And I want to thank the excellent panel for being here today, and I yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Marzullo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Marzullo. Thank you and good morning. I would like to express my appreciation to Chairwoman Comstock, Ranking Member Lipinski, Chair Smith, and Ranking Member Johnson, and the whole committee for this opportunity to come before you today to discuss the Networking and Information Technology Research and Development Program, the National Coordination Office, and this year's review of the NITRD Program by the President's Council of Advisors on Science and Technology. I will use the corresponding acronyms--NITRD, NCO, and PCAST--throughout the rest of my comments in the interest of brevity.    The NITRD Program provides for the coordination of research and development in networking and information technology across 21 federal agencies and many other partners, which collectively represent the federal government's primary investments in research and development for IT-related technologies. The NCO supports coordination activities of the NITRD Program.    In my oral comments today, I would like to talk a bit about current and future research directions. NITRD currently focuses on several areas, including big data; cloud computing; cybersecurity; Internet of Things; health IT; high-end computing; software-defined networking; and the social, economic, and workforce implications of IT and IT workforce development.    My written testimony gives several examples of recent accomplishments by NITRD groups, including strategic plans, interagency solicitations, and joint workshops, and how they promoted R&amp;D in their related research areas.    Looking forward, the recommendations of PCAST identified a key set of R&amp;D areas that with sustained support from Congress and across agencies will lead to significant progress in addressing national priorities. Some of the suggested R&amp;D areas like cybersecurity have been important for some time and still critically need cross-agency coordination.    There are three areas that PCAST identified, though, that I'd like to call out: first, big data and data-intensive computing. We recognized some time ago that scientific breakthroughs are increasingly powered by advanced computing capabilities that help researchers manipulate and explore massive data sets. Breakthroughs are now possible in education; city and community services; healthcare; and disaster preparedness prevention, response, and recovery.    However, big data raises important issues with respect to storage and curation, as well as to privacy. A continued cross-agency focus will accelerate our progress, advancing both the foundations and applications of data science and engineering.    Second: high-capacity computing for discovery, security, and commerce. Here, I would like to note the National Strategic Computing Initiative established by executive order earlier this year. Previous investments in high-performance computing have contributed substantially to national economic prosperity and have rapidly accelerated scientific discovery, but the path for continued progress is steep. We need fundamentally new approaches.    Delivering exascale computing presents hard technical challenges and further progress will require us to overcome the physical limitations imposed by current semiconductor technology. Addressing these challenges requires a whole-government approach in which NITRD is positioned to play a key coordinating role.    Third: cyber human systems. The role of people in networking and information technology and vice versa are both increasingly important. Robotics is moving from closed environments like factory floors to open environments like people's homes. The devices that communicate with each other in the Internet of Things are increasingly doing so as part of systems that fundamentally involve people, such as in automobile traffic management, environmental monitoring, and aging-in-place support. Cross-agency collaboration is required to make progress in computing-enabled human interaction, communication, and augmentation that can enhance human capabilities and improve learning, education, and training in all fields.    Let me close by noting that for decades the investments of the federal government in basic IT research have helped the nation make good progress on grand-challenge problems and address national priorities. Basic IT research has led to significant innovations, to new startups and small businesses, to birth of entirely new industries, and sometimes to disruptive technological change. The NITRD Program is completely involved in this exciting and rapidly changing research and innovation ecosystem through the program's mechanisms that facilitate interagency coordination and collaboration on federally funded research and development activities.    I thank you for your interest in the NITRD Program and the opportunity to appear before you today. The NITRD community looks forward to working with you to further the value of interagency cooperation in Networking and Information Technology Research and Development.</t>
   </si>
   <si>
-    <t>Hager</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hager. Thank you and good morning. I would like to express my appreciation as well to Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, and Ranking Member Johnson, and the other members of the Subcommittee on Research and Technology for this opportunity to present my perspectives on the NITRD Program.    As you are aware, by executive order the PCAST is charged with periodically reviewing the NITRD Program and has delivered reports previously in 2010 and 2013. To perform this most recent review, PCAST convened a working group consisting of seven experts from academia and industry. I co-chaired this group, together with Dr. Susan Graham, a PCAST member and professor emerita at the University of California Berkeley. I am pleased to be able to share with you a summary of some of the findings and recommendations of the report. My written testimony has a more complete overview of the report.    In the report, we note that when the High Performance Computing Act was introduced in 1991, much of computing research, particularly at the high end, focused on advances in computing systems themselves. As already noted in other opening remarks, today's picture is far broader. Computing empowers scientific inquiry, exploration, teaching and learning, and consumer buying and selling. Nearly every device, be it a car, a kitchen appliance, equipment on the manufacturing floor, or a child's toy is enhanced by information technology.    As already noted the National Bureau of Labor Statistics projects that more than half of all new jobs in STEM will be related to information technology.    These incredible advances in computing are reshaping the field of computing itself, creating an expanding research agenda that is increasingly driven by interactions among computing devices, people, and the physical world they inhabit, and which it is also increasingly important to many national priorities.    In preparing this most recent review, the PCAST NITRD working group consulted previous NITRD reviews, interviewed experts in a variety of areas, and ultimately chose eight key areas upon which to present findings and recommendations. Two national priorities, cybersecurity and health are highlighted. With respect to cybersecurity, the report calls out the need to support continued research on the development of secure systems, research on the management of imperfect systems and human fallibility, and mechanisms to translate new solutions into practice.    With respect to health, the report notes a growing community of technology researchers working in this space and highlights the need to empower this community through open interfaces, standards, and mechanisms for accelerating the deployment of solutions into practice.    The report highlights two areas: cyber human systems and privacy where there are strong cross-disciplinary ties with the social and behavioral sciences and with the policy community. Cyber human systems are computational systems that support communication and coordination of individuals, groups, and organizations.    As noted by Dr. Marzullo, advances in understanding of cyber human systems, will rely on fundamental research to understand the interplay of people and computing in coordination with mission-focused research and important societal needs such as education and health.    The report finds that privacy is increasingly threatened by the growth of online activity. Advances in privacy research will require deep collaboration among computer scientists, legal scholars, and behavioral and social scientists to inform both the design of computing systems and the drafting of policies and regulations.    Two areas where past investments are beginning to pay off for NITRD: IT-based interaction with the physical world and data-intensive computing. Recommendations for both of these areas call out the need for additional basic research but also highlight the need for coordination with mission agencies to advance applications of this work.    Finally, two areas in the technology base are reviewed. First, high-capability computing continues to be essential to our nation. The National Strategic Computing Initiative is an opportunity to implement a sustained program of long-term fundamental research on architectures, algorithms and software to ensure continued advances for both data-intensive and computing-intensive applications.    And last but most importantly, many of the advances we enjoy today grew from decades of foundational research. The report emphasizes that continued support for foundational research is essential to provide the basis for future innovations and disruptive advances in the use of IT.    Noting the anticipated growth in IT-related jobs, the report discusses the educational needs of the nation and recommends that the NITRD Subcommittee work in partnership with NSF and the Department of Education to develop educational and training opportunities in IT at all levels.    Finally, the report reviews the current organization of the NITRD Program and makes several recommendations to ensure the NITRD Program keeps pace with the continuing evolution of the computing field.    I will close by reiterating the findings our working committee affirmed that the NITRD Program continues to play an important role in guiding effective investments in computing research. I would like to again thank the Committee for this opportunity to discuss the findings of the NITRD working group, and I stand ready to help the Committee to advance its efforts in advancing computing research.</t>
   </si>
   <si>
-    <t>Seidel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Seidel. Thank you. Good morning, Chairwoman Comstock, Ranking Member Lipinski, Mand embers of the Subcommittee, thank you for the chance to participate in this important discussion.    I am Professor Ed Seidel, the Director of NCSA at the University of Illinois. I previously served at the National Science Foundation as the Assistant Director for the Directorate for Mathematical and Physical Sciences and also as the Director of the Office of Cyber Infrastructure. In those capacities I also co-chaired subcommittees under OSTP's Committees on Science and on Technology. I'm also very familiar with the importance to the nation of networking information technology, or NIT, across all areas of research and with the National Strategic Computing Initiative, or NSCI, and its importance in maintaining American competitiveness and research and in economic development. Indeed, I can think of no other single initiative that has as much potential to support and maintain U.S. leadership in research and innovation.    I would first like to outline some critical trends in science, engineering and industrial research that must guide federal investments in NIT. First, as more complex problems in science and society are addressed, R&amp;D is increasingly collaborative and interdisciplinary. How do drugs interact with a virus? How can jet engines be made more efficient? Answers will require integration of expertise from many areas of science and engineering and from big data and from multiple instruments and big computing. All are needed, and such problems do not respect disciplinary, nor agency boundaries.    Second, complex problems are increasingly computational and data-intensive requiring integration of large-scale computing facilities and data from many observation systems and instruments. Without this, many problems are beyond the reach of the nation's current capabilities.    Activities at the center that I direct, NCSA, beautifully illustrate these trends. Funded by many agencies, NCSA leads the two largest single computing investments from the NSF accounting for over half-a-billion dollars. The Blue Waters supercomputer, the most powerful in the academic world, provides unique science capabilities to over a thousand researchers across the nation. And I have a book here just hot off the presses that has dozens and dozens of projects that are being done on machines like Blue Waters and others that can't be done in any other way.    The XSEDE project also provides advanced digital services for resources at many other national computing and data sites. Together, these highly oversubscribed facilities support over a billion dollars worth of externally funded research projects, only about half of which come from the National Science Foundation with the remainder coming from NIH, DOE, NASA, and others.    NCSA is also building data services for the Large Synoptic Survey Telescope funded jointly by the NSF and the DOE at close to a billion dollars. This revolutionary telescope will produce data at rates never before seen in the history of astronomy, and NCSA will play the primary role in hosting, processing, and serving data to the nation's science communities.    Such 21st century investments--in this case, a telescope--are huge data-generators and they need huge computers. They are merely peripherals to the computing infrastructure needed for science. Costing upwards of a billion dollars each, such instruments are more silicon than they are steel, and they need to be a part of the overall ecosystem of national information technology investments.    Underlying all of this in this era of big data and computing, in order to maintain U.S. competitiveness in research and innovation, the NSCI is desperately needed. A whole-of-government effort is required with deep coordination across the spectrum of agencies, their communities, and digital methodologies. The NSCI rightly singled out NSF in a key integrative role in this broad ecosystem.    In August, PCAST made recommendations regarding NITRD and NCO that I agree with, and I am confident that the current leadership will do an outstanding job acting on these recommendations, enabling them to play a major role in coordinating federal NIT investments.    Beyond the PCAST recommendations, however, I would urge the Committee to consider three points: First, highly compute- and data-intensive instruments should be a part of the overall portfolio of NIT coordination. Each such instrument is typically more expensive than the largest single computing facilities with computing, networking, and data investments comparable to those of the largest HPC centers, yet they are often not coordinated with the rest of the system and they need to be.    Two, being science-driven, coordinating federal investment in NIT should involve organizations beyond NITRD, including groups under the Committee on Science. These science communities cut across all disciplines, they are funded by many agencies, and they are driving the integration of computing, data, and networking, and they need to be deeply involved.    And finally, new funding vehicles for large NIT investments that are designed to be more coordinated may also be needed. For example, NSF's MREFC vehicle for funding large facilities and DOE's CD process are used successfully to fund major instruments. One should examine whether such vehicles could be adapted for multiagency coordination.    Thank you for giving me the chance to testify. I hope that I can help realize the great vision of research and innovation vital to the nation that I think we all share.</t>
   </si>
   <si>
@@ -142,9 +124,6 @@
     <t>412674</t>
   </si>
   <si>
-    <t>Darin LaHood</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Madam Chair. And I want to thank the witnesses for your testimony today and for your commitment and dedication to what you do.    Dr. Seidel, we appreciate you being here, and thank you for the work you do at University of Illinois with our program there. And I wanted to just follow up a little bit on your reference to the private sector partner program. You referenced Caterpillar and some of the other companies that you work with.    In terms of kind of the real-world effects of that in terms of product design, competitiveness, and the iForge project, can you talk a little bit more about that? And I guess as a follow-up, do you think we're doing enough to highlight what we do in the private sector in making people aware of that, and is there room to grow there?</t>
   </si>
   <si>
@@ -175,9 +154,6 @@
     <t>412422</t>
   </si>
   <si>
-    <t>Randy Hultgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thanks, Madam Chair.    Thank you all for being here. This is an important subject and really appreciate the work that you're all doing. I think the NITRD Program is important and gives federal agencies the ability to better work together in multidisciplinary fashion to tackle the big scientific and technological challenges we are beginning to face.    Dr. Seidel, it's very good to see you again. It was so good to be at your amazing, literally amazing facility back in April. I still talk about that often, and I've visited quite a few different wonderful sites in Illinois. We do have a proud depth of scientific ecosystem in Illinois. But one of the most impressive was being there at Blue Waters. So I just want to thank you for your work and encourage my colleagues whenever you get the chance to come to Champaign-Urbana to be able to see a phenomenal facility that is absolutely having a big impact. So thank you for your work.    In your written testimony, Dr. Seidel, you mentioned that NCSA is deeply engaged in numerous big data projects. I also appreciate your discussing the LSST project. I think it's important for my colleagues to know that this was the number-one on-the-ground priority in the last Planetary Science Decadal Survey. So the work you are doing primarily with NSF funding really enables all of our other scientific fields.    With our computational capabilities being what they are today, how does the government need to account for what many are calling more of a data-management problem than a computing problem, and would you agree with that assessment?</t>
   </si>
   <si>
@@ -202,9 +178,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    Dr. Hager, in the past, NITRD Program has had problems with the way in which participating agencies categorized their NITRD budgets. Is that still a problem?</t>
   </si>
   <si>
@@ -233,9 +206,6 @@
   </si>
   <si>
     <t>412630</t>
-  </si>
-  <si>
-    <t>Ralph Lee Abraham</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Madam Chair, and I thank the doctors for being here, too.    Dr. Marzullo, is there any way the National Coordination Office itself can be improved, enhanced to support NITRD?</t>
@@ -700,11 +670,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -724,13 +692,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -750,13 +716,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -776,13 +740,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -802,13 +764,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -828,13 +788,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -854,13 +812,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -880,13 +836,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -906,13 +860,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -934,11 +886,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -958,13 +908,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -986,11 +934,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1010,13 +956,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1038,11 +982,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1062,13 +1004,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1090,11 +1030,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1114,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1142,11 +1078,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1166,13 +1100,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1194,11 +1126,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1218,13 +1148,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1244,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1270,13 +1196,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1296,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1322,13 +1244,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1348,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1374,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
         <v>42</v>
-      </c>
-      <c r="H28" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1400,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1426,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1452,13 +1364,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1478,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1504,13 +1412,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1530,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1556,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1582,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1608,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
         <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1634,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1660,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1686,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1712,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1738,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1764,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1790,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1816,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1842,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
         <v>62</v>
-      </c>
-      <c r="H46" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1868,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1894,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1920,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1946,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1972,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1998,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2024,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2050,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2076,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
         <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
-      <c r="H55" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2102,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2128,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2154,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2180,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2206,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2232,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2258,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2284,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2310,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2336,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" t="s">
-        <v>73</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2362,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2388,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2414,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97765.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97765.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,30 +55,57 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Chairwoman Comstock. Thank you and Chairman Smith for holding this hearing.    I am certainly pleased that we're once again planning to take up reauthorization legislation for the Networking and Information Technology R&amp;D Program known as NITRD. The House, through this committee, has successfully passed a bipartisan reauthorization of the program in each of the past three Congresses, and each time the Senate has failed to follow suit. If we are going to move a bill to the President's desk, each of us in this room will need to work harder on the necessary outreach to gather support. It's been too long since the original High-Performance Computing Act of 1991 has been updated with the current state of science and technology in the field, as well as the current operational and management needs of the program.    Networking and information technology is changing more rapidly than any of us could have dreamed in 1991. Mosaic, the World Wide Web browser that first made the internet user-friendly, was created at the National Center for Supercomputing Applications at the University Of Illinois in 1993 under a project funded thanks in large part to the HPC Act. Netscape founder Marc Andreessen, who was a leader of the Illinois team before launching his company, was quoted as saying, ``if it had been left to private industry, it wouldn't have happened, at least not until years later.'' Dr. Andreessen's statement is as relevant today as ever. Without question, the 1991 Act set the stage for a coordinated federal R&amp;D strategy that has underpinned the U.S. leadership in NIT for the past 25 years.    One reason, I believe, that we are having trouble getting an update through the Senate is that the private sector has not weighed in on the importance of NITRD. I understand that in the process of planning this hearing there was some difficulty identifying experts in industry at sufficiently high level with knowledge of the NITRD Program. Even the experts that were consulted had a hard time coming up with more names to reach out to. Given that federal investments in stet have applications across all sectors of our economy and at the ground level, NITRD involves many public-private partnerships, I find this troubling that we have not been able to get the private sector engaged here.    The NITRD Program is a $4 billion investment covering every aspect of networking and information technology R&amp;D, in addition to the computing infrastructure required to support R&amp;D in every field of science and engineering. Four billion dollars is a large sum by any measure. However, NITRD covers so many areas of R&amp;D, as the Chairwoman noted, and includes so much expensive but essential infrastructure, I fear we may be under-investing in many critical areas such as cybersecurity.    I want to thank the witnesses for submitting detailed written testimony, and I will highlight just a few topics that I hope we can discuss this morning. In his testimony, Dr. Seidel, the current Director of NCSA, discusses the need for more coherence and coordination around computing research infrastructure. When we talk about computing research infrastructure, we mean not just high-performance computing facilities such as Blue Waters, but also big data infrastructure, networking testbeds, observation systems, and more. I'd like to understand better how infrastructure is planned, coordinated, and categorized under the NITRD Program, and how the new National Strategic Computing Initiative fits in.    On the topic of education and workforce, we have heard from countless experts that our IT workforce pipeline is not keeping up with the demand. When it comes to education and training, the federal role may be small compared to the state and private sector's. However, PCAST made some specific recommendations for federal agencies that we may be able to take up in the NITRD legislation, so I hope we have the opportunity to discuss those recommendations further.    I look forward to hearing from this morning's expert panel. And with that, I yield back.</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Madam Chair. And let me say that I appreciate both your and the Ranking Member's thoughtful comments today.    Madam Chair, the Networking and Information Technology Research and Development program that we review today, otherwise known as NITRD, oversees federal investment in fundamental research areas such as supercomputing, cybersecurity, big data, and cyber-physical systems.    These research priorities help spur technologies that protect our country and grow our economy. For example, a cybersecurity attack is one of the greatest security challenges that America faces today. It threatens all of our federal agencies and even our private computer systems. This is just one area of federal R&amp;D that the NITRD Program addresses.    In the digital age, threats to our country's computer networking systems constantly evolve. We must effectively coordinate R&amp;D efforts in order to protect and improve cyber and data security nationwide. Better network security promotes U.S. competitiveness, enhances national security, and creates high-tech jobs.    In fact, the most recent President's Council of Advisors on Science and Technology report predicts that more than half of all new science, technology, engineering, and mathematics jobs will be related to information technology.    A healthy and viable workforce, literate in all STEM subjects including computer science, is critical to American industries. Today, a variety of jobs in industries from banking to engineering to medicine require a familiarity with computer science. According to the Bureau of Labor Statistics, computing and mathematics will be one of the top ten fastest-growing major occupational groups from 2010 to 2020, with a growth rate of four percent annually compared to one percent for all other industries.    Encouraging innovation and technological advancements is a priority of the Science Committee and is important to high-tech communities across our country, including those in my district.    The NITRD program focuses on research and development of new technologies that create more high-tech jobs in STEM fields. Technological innovation is what drives America's economy and success. Since the invention of the world's first supercomputer 50 years ago, the United States has held a competitive advantage in the field of supercomputing.    In fact, in Austin, Texas, we have seen great achievements in supercomputing. The Stampede supercomputer at the Texas Advanced Computing Center at the University of Texas in Austin is the number one open-access supercomputer in the country. Stampede will be used by more than 1,000 scientists from the United States and around the world to solve problems that affect our daily lives. This is a tremendous accomplishment not only for the innovators at the University of Texas in Austin but also for all Americans.    But to maintain this competitive advantage, we must continue to support the fundamental research and development that encourages innovation, particularly the creation and design of supercomputers and the applications those computers support.    It has been two years since this Committee last reviewed the NITRD Program and passed our Committee's bill to reauthorize the program. The Advanced--the Advancing America's Networking and Information Technology Research and Development Act of 2013 provided for the coordinated R&amp;D efforts necessary to improve cyber and data security nationwide. Our legislation also authorized the participating agencies to support large-scale, long-term, interdisciplinary research. Unfortunately, that legislation stalled in the Senate.    I want to thank our witnesses today for testifying on the NITRD program and appreciate their testimony on the current state of the program, recommendations for how to improve the program, and future R&amp;D priorities.    And I will yield back. Thank you.</t>
   </si>
   <si>
     <t>400204</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much. I want to thank you, Chairwoman Comstock, for holding this important hearing.    The Science, Space, and Technology Committee played a central role in the development of the High-Performance Computing Act of 1991, the bill that set the stage for 25 years of scientific and technological progress under the Networking and Information Technology Research and Development, or NITRD.    Advances in networking and information technology are a key driver of our economy, our national security, and our well-being. NITRD contributes to increased productivity in existing industries and opens the door for information of new ones. We've all heard how Google grew out of a basic research project funded by the National Science Foundation. NITRD protects our brave men and women in the military by improving intelligence gathering and sharing and providing them with more effective and safer equipment. NITRD has improved healthcare and saved countless lives by contributing to advanced diagnostic and surgical tools, distance medicine, and improved medical research.    NIT is truly pervasive in our society. Even those of us who lived most of our lives before the advent of wireless technology don't know how we would live today without the devices we carry around in our pockets.    In their 2015 review of the NITRD Program, the President's Council of Advisors on Science and Technology, PCAST, expressed concern that researchers today face difficulty getting funded for riskier, more speculative long-term investigations. According to the PCAST report, funding pressures are pushing scientists to choose more short-term problem-solving research. I worry deeply about the impact of that and declining budgets across our science and technology enterprise. I hope that any budget deal being worked out now and in the future will allow for increased investments in all fields of science and engineering. That was just one of many recommendations from PCAST and other experts.    Today's hearing is an important opportunity for committee members to hear from experts about key issues in NITRD reauthorization. Our committee has tried several times to update and reauthorize NITRD legislation so that it continues to push the boundaries of information technology, science and technology, and maximizes opportunities for coordination, collaboration, and strategic planning among the many NITRD member agencies.    I look forward to working with my colleagues on both sides of the aisle to develop a good bill and move it through the House. Perhaps we will have more success this time around in the Senate.    And I want to thank the excellent panel for being here today, and I yield back.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Marzullo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Marzullo. Thank you and good morning. I would like to express my appreciation to Chairwoman Comstock, Ranking Member Lipinski, Chair Smith, and Ranking Member Johnson, and the whole committee for this opportunity to come before you today to discuss the Networking and Information Technology Research and Development Program, the National Coordination Office, and this year's review of the NITRD Program by the President's Council of Advisors on Science and Technology. I will use the corresponding acronyms--NITRD, NCO, and PCAST--throughout the rest of my comments in the interest of brevity.    The NITRD Program provides for the coordination of research and development in networking and information technology across 21 federal agencies and many other partners, which collectively represent the federal government's primary investments in research and development for IT-related technologies. The NCO supports coordination activities of the NITRD Program.    In my oral comments today, I would like to talk a bit about current and future research directions. NITRD currently focuses on several areas, including big data; cloud computing; cybersecurity; Internet of Things; health IT; high-end computing; software-defined networking; and the social, economic, and workforce implications of IT and IT workforce development.    My written testimony gives several examples of recent accomplishments by NITRD groups, including strategic plans, interagency solicitations, and joint workshops, and how they promoted R&amp;D in their related research areas.    Looking forward, the recommendations of PCAST identified a key set of R&amp;D areas that with sustained support from Congress and across agencies will lead to significant progress in addressing national priorities. Some of the suggested R&amp;D areas like cybersecurity have been important for some time and still critically need cross-agency coordination.    There are three areas that PCAST identified, though, that I'd like to call out: first, big data and data-intensive computing. We recognized some time ago that scientific breakthroughs are increasingly powered by advanced computing capabilities that help researchers manipulate and explore massive data sets. Breakthroughs are now possible in education; city and community services; healthcare; and disaster preparedness prevention, response, and recovery.    However, big data raises important issues with respect to storage and curation, as well as to privacy. A continued cross-agency focus will accelerate our progress, advancing both the foundations and applications of data science and engineering.    Second: high-capacity computing for discovery, security, and commerce. Here, I would like to note the National Strategic Computing Initiative established by executive order earlier this year. Previous investments in high-performance computing have contributed substantially to national economic prosperity and have rapidly accelerated scientific discovery, but the path for continued progress is steep. We need fundamentally new approaches.    Delivering exascale computing presents hard technical challenges and further progress will require us to overcome the physical limitations imposed by current semiconductor technology. Addressing these challenges requires a whole-government approach in which NITRD is positioned to play a key coordinating role.    Third: cyber human systems. The role of people in networking and information technology and vice versa are both increasingly important. Robotics is moving from closed environments like factory floors to open environments like people's homes. The devices that communicate with each other in the Internet of Things are increasingly doing so as part of systems that fundamentally involve people, such as in automobile traffic management, environmental monitoring, and aging-in-place support. Cross-agency collaboration is required to make progress in computing-enabled human interaction, communication, and augmentation that can enhance human capabilities and improve learning, education, and training in all fields.    Let me close by noting that for decades the investments of the federal government in basic IT research have helped the nation make good progress on grand-challenge problems and address national priorities. Basic IT research has led to significant innovations, to new startups and small businesses, to birth of entirely new industries, and sometimes to disruptive technological change. The NITRD Program is completely involved in this exciting and rapidly changing research and innovation ecosystem through the program's mechanisms that facilitate interagency coordination and collaboration on federally funded research and development activities.    I thank you for your interest in the NITRD Program and the opportunity to appear before you today. The NITRD community looks forward to working with you to further the value of interagency cooperation in Networking and Information Technology Research and Development.</t>
   </si>
   <si>
+    <t>Hager</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hager. Thank you and good morning. I would like to express my appreciation as well to Chairwoman Comstock, Ranking Member Lipinski, Chairman Smith, and Ranking Member Johnson, and the other members of the Subcommittee on Research and Technology for this opportunity to present my perspectives on the NITRD Program.    As you are aware, by executive order the PCAST is charged with periodically reviewing the NITRD Program and has delivered reports previously in 2010 and 2013. To perform this most recent review, PCAST convened a working group consisting of seven experts from academia and industry. I co-chaired this group, together with Dr. Susan Graham, a PCAST member and professor emerita at the University of California Berkeley. I am pleased to be able to share with you a summary of some of the findings and recommendations of the report. My written testimony has a more complete overview of the report.    In the report, we note that when the High Performance Computing Act was introduced in 1991, much of computing research, particularly at the high end, focused on advances in computing systems themselves. As already noted in other opening remarks, today's picture is far broader. Computing empowers scientific inquiry, exploration, teaching and learning, and consumer buying and selling. Nearly every device, be it a car, a kitchen appliance, equipment on the manufacturing floor, or a child's toy is enhanced by information technology.    As already noted the National Bureau of Labor Statistics projects that more than half of all new jobs in STEM will be related to information technology.    These incredible advances in computing are reshaping the field of computing itself, creating an expanding research agenda that is increasingly driven by interactions among computing devices, people, and the physical world they inhabit, and which it is also increasingly important to many national priorities.    In preparing this most recent review, the PCAST NITRD working group consulted previous NITRD reviews, interviewed experts in a variety of areas, and ultimately chose eight key areas upon which to present findings and recommendations. Two national priorities, cybersecurity and health are highlighted. With respect to cybersecurity, the report calls out the need to support continued research on the development of secure systems, research on the management of imperfect systems and human fallibility, and mechanisms to translate new solutions into practice.    With respect to health, the report notes a growing community of technology researchers working in this space and highlights the need to empower this community through open interfaces, standards, and mechanisms for accelerating the deployment of solutions into practice.    The report highlights two areas: cyber human systems and privacy where there are strong cross-disciplinary ties with the social and behavioral sciences and with the policy community. Cyber human systems are computational systems that support communication and coordination of individuals, groups, and organizations.    As noted by Dr. Marzullo, advances in understanding of cyber human systems, will rely on fundamental research to understand the interplay of people and computing in coordination with mission-focused research and important societal needs such as education and health.    The report finds that privacy is increasingly threatened by the growth of online activity. Advances in privacy research will require deep collaboration among computer scientists, legal scholars, and behavioral and social scientists to inform both the design of computing systems and the drafting of policies and regulations.    Two areas where past investments are beginning to pay off for NITRD: IT-based interaction with the physical world and data-intensive computing. Recommendations for both of these areas call out the need for additional basic research but also highlight the need for coordination with mission agencies to advance applications of this work.    Finally, two areas in the technology base are reviewed. First, high-capability computing continues to be essential to our nation. The National Strategic Computing Initiative is an opportunity to implement a sustained program of long-term fundamental research on architectures, algorithms and software to ensure continued advances for both data-intensive and computing-intensive applications.    And last but most importantly, many of the advances we enjoy today grew from decades of foundational research. The report emphasizes that continued support for foundational research is essential to provide the basis for future innovations and disruptive advances in the use of IT.    Noting the anticipated growth in IT-related jobs, the report discusses the educational needs of the nation and recommends that the NITRD Subcommittee work in partnership with NSF and the Department of Education to develop educational and training opportunities in IT at all levels.    Finally, the report reviews the current organization of the NITRD Program and makes several recommendations to ensure the NITRD Program keeps pace with the continuing evolution of the computing field.    I will close by reiterating the findings our working committee affirmed that the NITRD Program continues to play an important role in guiding effective investments in computing research. I would like to again thank the Committee for this opportunity to discuss the findings of the NITRD working group, and I stand ready to help the Committee to advance its efforts in advancing computing research.</t>
   </si>
   <si>
+    <t>Seidel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Seidel. Thank you. Good morning, Chairwoman Comstock, Ranking Member Lipinski, Mand embers of the Subcommittee, thank you for the chance to participate in this important discussion.    I am Professor Ed Seidel, the Director of NCSA at the University of Illinois. I previously served at the National Science Foundation as the Assistant Director for the Directorate for Mathematical and Physical Sciences and also as the Director of the Office of Cyber Infrastructure. In those capacities I also co-chaired subcommittees under OSTP's Committees on Science and on Technology. I'm also very familiar with the importance to the nation of networking information technology, or NIT, across all areas of research and with the National Strategic Computing Initiative, or NSCI, and its importance in maintaining American competitiveness and research and in economic development. Indeed, I can think of no other single initiative that has as much potential to support and maintain U.S. leadership in research and innovation.    I would first like to outline some critical trends in science, engineering and industrial research that must guide federal investments in NIT. First, as more complex problems in science and society are addressed, R&amp;D is increasingly collaborative and interdisciplinary. How do drugs interact with a virus? How can jet engines be made more efficient? Answers will require integration of expertise from many areas of science and engineering and from big data and from multiple instruments and big computing. All are needed, and such problems do not respect disciplinary, nor agency boundaries.    Second, complex problems are increasingly computational and data-intensive requiring integration of large-scale computing facilities and data from many observation systems and instruments. Without this, many problems are beyond the reach of the nation's current capabilities.    Activities at the center that I direct, NCSA, beautifully illustrate these trends. Funded by many agencies, NCSA leads the two largest single computing investments from the NSF accounting for over half-a-billion dollars. The Blue Waters supercomputer, the most powerful in the academic world, provides unique science capabilities to over a thousand researchers across the nation. And I have a book here just hot off the presses that has dozens and dozens of projects that are being done on machines like Blue Waters and others that can't be done in any other way.    The XSEDE project also provides advanced digital services for resources at many other national computing and data sites. Together, these highly oversubscribed facilities support over a billion dollars worth of externally funded research projects, only about half of which come from the National Science Foundation with the remainder coming from NIH, DOE, NASA, and others.    NCSA is also building data services for the Large Synoptic Survey Telescope funded jointly by the NSF and the DOE at close to a billion dollars. This revolutionary telescope will produce data at rates never before seen in the history of astronomy, and NCSA will play the primary role in hosting, processing, and serving data to the nation's science communities.    Such 21st century investments--in this case, a telescope--are huge data-generators and they need huge computers. They are merely peripherals to the computing infrastructure needed for science. Costing upwards of a billion dollars each, such instruments are more silicon than they are steel, and they need to be a part of the overall ecosystem of national information technology investments.    Underlying all of this in this era of big data and computing, in order to maintain U.S. competitiveness in research and innovation, the NSCI is desperately needed. A whole-of-government effort is required with deep coordination across the spectrum of agencies, their communities, and digital methodologies. The NSCI rightly singled out NSF in a key integrative role in this broad ecosystem.    In August, PCAST made recommendations regarding NITRD and NCO that I agree with, and I am confident that the current leadership will do an outstanding job acting on these recommendations, enabling them to play a major role in coordinating federal NIT investments.    Beyond the PCAST recommendations, however, I would urge the Committee to consider three points: First, highly compute- and data-intensive instruments should be a part of the overall portfolio of NIT coordination. Each such instrument is typically more expensive than the largest single computing facilities with computing, networking, and data investments comparable to those of the largest HPC centers, yet they are often not coordinated with the rest of the system and they need to be.    Two, being science-driven, coordinating federal investment in NIT should involve organizations beyond NITRD, including groups under the Committee on Science. These science communities cut across all disciplines, they are funded by many agencies, and they are driving the integration of computing, data, and networking, and they need to be deeply involved.    And finally, new funding vehicles for large NIT investments that are designed to be more coordinated may also be needed. For example, NSF's MREFC vehicle for funding large facilities and DOE's CD process are used successfully to fund major instruments. One should examine whether such vehicles could be adapted for multiagency coordination.    Thank you for giving me the chance to testify. I hope that I can help realize the great vision of research and innovation vital to the nation that I think we all share.</t>
   </si>
   <si>
@@ -124,6 +154,12 @@
     <t>412674</t>
   </si>
   <si>
+    <t>LaHood</t>
+  </si>
+  <si>
+    <t>Darin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you, Madam Chair. And I want to thank the witnesses for your testimony today and for your commitment and dedication to what you do.    Dr. Seidel, we appreciate you being here, and thank you for the work you do at University of Illinois with our program there. And I wanted to just follow up a little bit on your reference to the private sector partner program. You referenced Caterpillar and some of the other companies that you work with.    In terms of kind of the real-world effects of that in terms of product design, competitiveness, and the iForge project, can you talk a little bit more about that? And I guess as a follow-up, do you think we're doing enough to highlight what we do in the private sector in making people aware of that, and is there room to grow there?</t>
   </si>
   <si>
@@ -154,6 +190,12 @@
     <t>412422</t>
   </si>
   <si>
+    <t>Hultgren</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thanks, Madam Chair.    Thank you all for being here. This is an important subject and really appreciate the work that you're all doing. I think the NITRD Program is important and gives federal agencies the ability to better work together in multidisciplinary fashion to tackle the big scientific and technological challenges we are beginning to face.    Dr. Seidel, it's very good to see you again. It was so good to be at your amazing, literally amazing facility back in April. I still talk about that often, and I've visited quite a few different wonderful sites in Illinois. We do have a proud depth of scientific ecosystem in Illinois. But one of the most impressive was being there at Blue Waters. So I just want to thank you for your work and encourage my colleagues whenever you get the chance to come to Champaign-Urbana to be able to see a phenomenal facility that is absolutely having a big impact. So thank you for your work.    In your written testimony, Dr. Seidel, you mentioned that NCSA is deeply engaged in numerous big data projects. I also appreciate your discussing the LSST project. I think it's important for my colleagues to know that this was the number-one on-the-ground priority in the last Planetary Science Decadal Survey. So the work you are doing primarily with NSF funding really enables all of our other scientific fields.    With our computational capabilities being what they are today, how does the government need to account for what many are calling more of a data-management problem than a computing problem, and would you agree with that assessment?</t>
   </si>
   <si>
@@ -178,6 +220,12 @@
     <t>412608</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Madam Chairman.    Dr. Hager, in the past, NITRD Program has had problems with the way in which participating agencies categorized their NITRD budgets. Is that still a problem?</t>
   </si>
   <si>
@@ -206,6 +254,12 @@
   </si>
   <si>
     <t>412630</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Ralph</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Abraham. Thank you, Madam Chair, and I thank the doctors for being here, too.    Dr. Marzullo, is there any way the National Coordination Office itself can be improved, enhanced to support NITRD?</t>
@@ -620,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +682,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,1613 +704,1883 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>58</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>68</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>68</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
       <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G49" t="s">
+        <v>80</v>
+      </c>
       <c r="H49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G51" t="s">
+        <v>80</v>
+      </c>
       <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
       <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
       <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
       <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G61" t="s">
+        <v>80</v>
+      </c>
       <c r="H61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G63" t="s">
+        <v>80</v>
+      </c>
       <c r="H63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
       <c r="H65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>85</v>
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97765.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97765.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lipinski</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -152,6 +161,9 @@
   </si>
   <si>
     <t>412674</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>LaHood</t>
@@ -674,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,7 +694,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,1880 +719,2016 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I38" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>85</v>
+      </c>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>29</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>103</v>
+        <v>27</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
